--- a/uRos2020_abstracts/abstracts.xlsx
+++ b/uRos2020_abstracts/abstracts.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\xwwp0017\profiles$\meindl\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14115"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1002,9 +1010,6 @@
     <t>Statistical Office of the Slovak Republic</t>
   </si>
   <si>
-    <t xml:space="preserve">PROCESS AUTOMATION WITH R, FROM RAW DATA TO PRESS RELEASE:  APPLICATION TO EDUCATION EXPENDITURE STATISTICS </t>
-  </si>
-  <si>
     <t xml:space="preserve">Education Expenditure Statistics (EES) have been published by Turkish Statistical Institute since 2015 annually at the end of each year. EES are comprised of education expenditures of central and local government, private sector, households, international organisations and government and private transfers. The information is provided by sources of expenditures (public, private, household or international) and nature of expenditures (public or private) and categories (capital expenditures and current expenditures, such as salaries of teaching and non-teaching staff). Last but not least, all these details are reported in a breakdown of ISCED levels.
 Sources of data vary by sector (public, private or households), by data formats such as MS Excel, SAS or text files), by method (administrative registers or survey data). 
 Since there is a great variety of data sources and data formats, data analysis had been a challenge beginning from the first phases of study. Previously, the files compiled in various data formats and transformed to MS Excel, and analyses were carried out making use of these files. Nevertheless, conducting the process by MS Excel was vulnerable to errors and data losses and the whole process needed to be reiterated every year from scratch.
@@ -1330,21 +1335,25 @@
   <si>
     <t>Houssam Hachimi</t>
   </si>
+  <si>
+    <t>Process Automation with R, from Raw Data to Press Release: Application to Education Expenditure Statistics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1354,40 +1363,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1577,26 +1591,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="23" width="21.57"/>
+    <col min="1" max="23" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1649,9 +1666,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>43867.33967959491</v>
+        <v>43867.339679594908</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
@@ -1672,7 +1689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43867.346029548615</v>
       </c>
@@ -1692,9 +1709,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>43867.34706532407</v>
+        <v>43867.347065324073</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>28</v>
@@ -1727,9 +1744,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>43867.34835355324</v>
+        <v>43867.348353553243</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>35</v>
@@ -1753,9 +1770,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>43867.34913863426</v>
+        <v>43867.349138634258</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>40</v>
@@ -1773,9 +1790,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>43867.34999974537</v>
+        <v>43867.349999745369</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>44</v>
@@ -1799,9 +1816,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43867.35080759259</v>
+        <v>43867.350807592593</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>49</v>
@@ -1822,7 +1839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43867.351438287034</v>
       </c>
@@ -1842,7 +1859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43867.352359675926</v>
       </c>
@@ -1871,7 +1888,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43867.353283344906</v>
       </c>
@@ -1903,9 +1920,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>43867.3538784375</v>
+        <v>43867.353878437498</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>71</v>
@@ -1923,7 +1940,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43867.354641990736</v>
       </c>
@@ -1943,7 +1960,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43867.355419189815</v>
       </c>
@@ -1966,9 +1983,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>43867.35613644676</v>
+        <v>43867.356136446761</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>83</v>
@@ -1992,9 +2009,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>43867.35737827547</v>
+        <v>43867.357378275468</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>88</v>
@@ -2012,9 +2029,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>43867.35816638889</v>
+        <v>43867.358166388891</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>92</v>
@@ -2044,9 +2061,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>43867.35879809028</v>
+        <v>43867.358798090281</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>97</v>
@@ -2064,9 +2081,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>43867.35944755787</v>
+        <v>43867.359447557872</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>101</v>
@@ -2084,9 +2101,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>43867.3598791088</v>
+        <v>43867.359879108801</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>104</v>
@@ -2110,9 +2127,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>43867.36090675926</v>
+        <v>43867.360906759262</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>109</v>
@@ -2136,7 +2153,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43867.361841550926</v>
       </c>
@@ -2168,9 +2185,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>43867.3631046875</v>
+        <v>43867.363104687502</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>119</v>
@@ -2209,9 +2226,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>43867.36358556713</v>
+        <v>43867.363585567131</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>128</v>
@@ -2229,9 +2246,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>43867.36409105324</v>
+        <v>43867.364091053241</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>132</v>
@@ -2249,9 +2266,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>43867.36476053241</v>
+        <v>43867.364760532408</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>136</v>
@@ -2275,7 +2292,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43867.365359143514</v>
       </c>
@@ -2295,7 +2312,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43867.36666190972</v>
       </c>
@@ -2315,9 +2332,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>43867.3675849537</v>
+        <v>43867.367584953703</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>149</v>
@@ -2341,9 +2358,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>43867.36843149306</v>
+        <v>43867.368431493058</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>155</v>
@@ -2373,7 +2390,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43867.36910974537</v>
       </c>
@@ -2396,9 +2413,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>43867.37043081019</v>
+        <v>43867.370430810188</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>165</v>
@@ -2434,7 +2451,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43867.371240555556</v>
       </c>
@@ -2460,9 +2477,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>43867.37340134259</v>
+        <v>43867.373401342593</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>178</v>
@@ -2480,9 +2497,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>43867.37457462963</v>
+        <v>43867.374574629634</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>182</v>
@@ -2512,9 +2529,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>43867.37586384259</v>
+        <v>43867.375863842593</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>185</v>
@@ -2538,7 +2555,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43867.376669606485</v>
       </c>
@@ -2573,7 +2590,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43867.384836909725</v>
       </c>
@@ -2605,9 +2622,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>43867.38632414352</v>
+        <v>43867.386324143517</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>202</v>
@@ -2643,7 +2660,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43867.388082164354</v>
       </c>
@@ -2687,7 +2704,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43867.389301504634</v>
       </c>
@@ -2725,7 +2742,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43867.390828090276</v>
       </c>
@@ -2745,9 +2762,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>43867.39267064814</v>
+        <v>43867.392670648143</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>224</v>
@@ -2783,7 +2800,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43867.39334008102</v>
       </c>
@@ -2815,9 +2832,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>43867.39462388889</v>
+        <v>43867.394623888889</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>238</v>
@@ -2865,7 +2882,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43867.395109687495</v>
       </c>
@@ -2885,263 +2902,263 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>43867.39594449074</v>
+        <v>43867.395944490738</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43867.396859872686</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G48" s="3" t="s">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>43867.397601736113</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2">
-        <v>43867.39760173611</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="50">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43867.398741689816</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="M50" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43867.3994231713</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="I51" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43867.399935231486</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43867.40033207176</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="F53" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>43867.401373923611</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2">
-        <v>43867.40137392361</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="G54" s="3" t="s">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>43867.401838333331</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2">
-        <v>43867.40183833333</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>43867.402415937497</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2">
-        <v>43867.4024159375</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G56" s="3" t="s">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>43867.403161365743</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2">
-        <v>43867.40316136574</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>57</v>
@@ -3153,30 +3170,30 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>43867.40393331018</v>
+        <v>43867.403933310183</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="I58" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>94</v>
@@ -3185,157 +3202,157 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>43867.40445627314</v>
+        <v>43867.404456273143</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="60">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43867.405108391205</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I60" s="3" t="s">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>43867.406668530093</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2">
-        <v>43867.40666853009</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="K61" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43867.40742974537</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="K62" s="3" t="s">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>43867.407841689812</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2">
-        <v>43867.40784168981</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>43867.41424884259</v>
+        <v>43867.414248842593</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="G64" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uRos2020_abstracts/abstracts.xlsx
+++ b/uRos2020_abstracts/abstracts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\xwwp0017\profiles$\meindl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\xwwp0017\profiles$\KOWA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1603,9 +1603,9 @@
   </sheetPr>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1902,19 +1902,19 @@
         <v>66</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>68</v>

--- a/uRos2020_abstracts/abstracts.xlsx
+++ b/uRos2020_abstracts/abstracts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="339">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1338,6 +1338,25 @@
   <si>
     <t>Process Automation with R, from Raw Data to Press Release: Application to Education Expenditure Statistics</t>
   </si>
+  <si>
+    <t>Predicting Location via Indoor Positioning Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will present the chapter “Predicting Location via Indoor Positioning Systems” from the book “Data Science in R” written by Nolan Deborah and Duncan Temple Land (2015).
+The growth of wireless networking has generated commercial and research interests in statistical methods to reliably track people and things inside stores, hospitals, warehouses, and factories. Global positioning systems (GPS) do not work reliably inside buildings, but with the proliferation of wireless local area networks (LANs), indoor positioning systems (IPS) can utilize WiFi signals detected from network access points to answer questions such as: where is a piece of equipment in a hospital? where am I? and who are my neighbors? Ideally, with minimal training, calibration, and equipment, these questions can be answered well in near real-time.
+To build an indoor positioning system requires a reference set of data where the signal strength between a hand-held device such as a cellular phone or laptop and fixed access points (routers) are measured at known locations throughout the building. With these training data, we can build a model for the location of a device as a function of the strength of the signals between the device and each access point. Then we use this model to predict the location of a new unknown device based on the detected signals for the device. We examine nearly one million measurements of signal strength recorded at 6 stationary WiFi access points (routers) within a building at the University of Mannheim and develop a statistical IPS.
+Our first step in this process is to understand how the data were collected and formatted. We do this by reading documentation provided by the researchers who have recorded the data and by carrying out our own investigations. After we have a sense of the data, we organize them into a structure suitable for analysis. We then clean the data and before we begin our modeling, we examine signal strength more closely to better understand its statistical properties. Then we pursue a nearest neighbor method for predicting location and we test it on a second set of data, also provided by the researchers at Mannheim.
+</t>
+  </si>
+  <si>
+    <t>Michael Schleifer</t>
+  </si>
+  <si>
+    <t>JKU Linz</t>
+  </si>
+  <si>
+    <t>Wolfgang Rannetbauer</t>
+  </si>
 </sst>
 </file>
 
@@ -1346,7 +1365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1356,6 +1375,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1378,11 +1409,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1601,11 +1636,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3352,7 +3387,34 @@
         <v>306</v>
       </c>
     </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>43885.330914351849</v>
+      </c>
+      <c r="B65" t="s">
+        <v>334</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uRos2020_abstracts/abstracts.xlsx
+++ b/uRos2020_abstracts/abstracts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="351">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1356,6 +1356,42 @@
   </si>
   <si>
     <t>Wolfgang Rannetbauer</t>
+  </si>
+  <si>
+    <t>Isabel Molina Peralta</t>
+  </si>
+  <si>
+    <t>Universidad Carlos III de Madrid</t>
+  </si>
+  <si>
+    <t>Small area estimation using R, with application to poverty mapping.</t>
+  </si>
+  <si>
+    <t>Keynote</t>
+  </si>
+  <si>
+    <t>Small area estimation is a promising, but also well established and well developed family of methods to gain insights on detailed domains or areas. Not widely used in statistical offices yet, available resources in R provide an opportunity to change that. Existing R packages designed for small area estimation with a special focus on the applicability for poverty mapping are reviewed. Applications to poverty mapping are presented to illustrate some of the available functions.</t>
+  </si>
+  <si>
+    <t>Functional data analysis in Bayes Spaces with an Application to spatio-temporal population data</t>
+  </si>
+  <si>
+    <t>Matthias Templ</t>
+  </si>
+  <si>
+    <t>Probability density functions are frequently used to characterize the distributional properties of large-scale database systems. As functional compositions, densities carry primarily relative information. As such, standard methods of functional data analysis (FDA) are not appropriate for their statistical processing and thus a compositional alternative is proposed. The aim of this presentation is to outline a concise methodology for functional principal component analysis of densities based on the geometry of the Bayes space B2 of functional compositions. Advances of the proposed approach are demonstrated using a real-world example of population pyramids in Upper Austria. For compositional analysis we also introduce the R package robCompositions.</t>
+  </si>
+  <si>
+    <t>Kurt Hornik</t>
+  </si>
+  <si>
+    <t>Working with textual data ("text mining") is becoming increasingly important in modern statistics.  We show how R can be used for basic and advanced natural language processing tasks, manipulating collections of text documents, and deriving features/representations suitable for further statistical analyses.  We illustrate how these conceptual and computational tools can be employed in several applications, including document clustering, stylometry, cultoromics, semantic lexicon induction, extracting financial sentiment, and modeling readability.</t>
+  </si>
+  <si>
+    <t>Analyzing Texts with R</t>
+  </si>
+  <si>
+    <t>Zurich University of Applied Sciences</t>
   </si>
 </sst>
 </file>
@@ -1636,11 +1672,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1648,7 +1684,7 @@
     <col min="1" max="23" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43867.339679594908</v>
       </c>
@@ -1724,7 +1760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43867.346029548615</v>
       </c>
@@ -1744,7 +1780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43867.347065324073</v>
       </c>
@@ -1779,7 +1815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43867.348353553243</v>
       </c>
@@ -1805,7 +1841,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43867.349138634258</v>
       </c>
@@ -1825,7 +1861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43867.349999745369</v>
       </c>
@@ -1851,7 +1887,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43867.350807592593</v>
       </c>
@@ -1874,7 +1910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43867.351438287034</v>
       </c>
@@ -1894,7 +1930,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43867.352359675926</v>
       </c>
@@ -1923,7 +1959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43867.353283344906</v>
       </c>
@@ -1955,7 +1991,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43867.353878437498</v>
       </c>
@@ -1975,7 +2011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43867.354641990736</v>
       </c>
@@ -1995,7 +2031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43867.355419189815</v>
       </c>
@@ -2018,7 +2054,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43867.356136446761</v>
       </c>
@@ -2044,7 +2080,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43867.357378275468</v>
       </c>
@@ -2064,7 +2100,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43867.358166388891</v>
       </c>
@@ -2096,7 +2132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43867.358798090281</v>
       </c>
@@ -2116,7 +2152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43867.359447557872</v>
       </c>
@@ -2136,7 +2172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43867.359879108801</v>
       </c>
@@ -2162,7 +2198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43867.360906759262</v>
       </c>
@@ -2188,7 +2224,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43867.361841550926</v>
       </c>
@@ -2220,7 +2256,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43867.363104687502</v>
       </c>
@@ -2261,7 +2297,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43867.363585567131</v>
       </c>
@@ -2281,7 +2317,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43867.364091053241</v>
       </c>
@@ -2301,7 +2337,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43867.364760532408</v>
       </c>
@@ -2327,7 +2363,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43867.365359143514</v>
       </c>
@@ -2347,7 +2383,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43867.36666190972</v>
       </c>
@@ -2367,7 +2403,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43867.367584953703</v>
       </c>
@@ -2393,7 +2429,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43867.368431493058</v>
       </c>
@@ -2425,7 +2461,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43867.36910974537</v>
       </c>
@@ -2448,7 +2484,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43867.370430810188</v>
       </c>
@@ -2486,7 +2522,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43867.371240555556</v>
       </c>
@@ -2512,7 +2548,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43867.373401342593</v>
       </c>
@@ -2532,7 +2568,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43867.374574629634</v>
       </c>
@@ -2564,7 +2600,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43867.375863842593</v>
       </c>
@@ -2590,7 +2626,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43867.376669606485</v>
       </c>
@@ -2625,7 +2661,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43867.384836909725</v>
       </c>
@@ -2657,7 +2693,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43867.386324143517</v>
       </c>
@@ -2695,7 +2731,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43867.388082164354</v>
       </c>
@@ -2739,7 +2775,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43867.389301504634</v>
       </c>
@@ -2777,7 +2813,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43867.390828090276</v>
       </c>
@@ -2797,7 +2833,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43867.392670648143</v>
       </c>
@@ -2835,7 +2871,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43867.39334008102</v>
       </c>
@@ -2867,7 +2903,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43867.394623888889</v>
       </c>
@@ -2917,7 +2953,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43867.395109687495</v>
       </c>
@@ -2937,7 +2973,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43867.395944490738</v>
       </c>
@@ -2963,7 +2999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43867.396859872686</v>
       </c>
@@ -2986,7 +3022,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43867.397601736113</v>
       </c>
@@ -3006,7 +3042,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43867.398741689816</v>
       </c>
@@ -3044,7 +3080,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43867.3994231713</v>
       </c>
@@ -3070,7 +3106,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43867.399935231486</v>
       </c>
@@ -3090,7 +3126,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43867.40033207176</v>
       </c>
@@ -3110,7 +3146,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43867.401373923611</v>
       </c>
@@ -3130,7 +3166,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43867.401838333331</v>
       </c>
@@ -3150,7 +3186,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43867.402415937497</v>
       </c>
@@ -3173,7 +3209,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43867.403161365743</v>
       </c>
@@ -3205,7 +3241,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43867.403933310183</v>
       </c>
@@ -3237,7 +3273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43867.404456273143</v>
       </c>
@@ -3257,7 +3293,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43867.405108391205</v>
       </c>
@@ -3283,7 +3319,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43867.406668530093</v>
       </c>
@@ -3315,7 +3351,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43867.40742974537</v>
       </c>
@@ -3347,7 +3383,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43867.407841689812</v>
       </c>
@@ -3367,7 +3403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43867.414248842593</v>
       </c>
@@ -3411,6 +3447,66 @@
       </c>
       <c r="I65" s="5" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>43886.330914351849</v>
+      </c>
+      <c r="B66" t="s">
+        <v>341</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F66" t="s">
+        <v>339</v>
+      </c>
+      <c r="G66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>43886.330914351849</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>43886.330914351849</v>
+      </c>
+      <c r="B68" t="s">
+        <v>349</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/uRos2020_abstracts/abstracts.xlsx
+++ b/uRos2020_abstracts/abstracts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\xwwp0017\profiles$\KOWA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\xwwp0017\profiles$\meindl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -916,9 +916,6 @@
     <t>Konrad Oberwimmer</t>
   </si>
   <si>
-    <t>BIFIE</t>
-  </si>
-  <si>
     <t>Integrated Weighting and Estimation System for Household Surveys with Complex Sampling Design</t>
   </si>
   <si>
@@ -1392,6 +1389,9 @@
   </si>
   <si>
     <t>Zurich University of Applied Sciences</t>
+  </si>
+  <si>
+    <t>IQS</t>
   </si>
 </sst>
 </file>
@@ -1675,8 +1675,8 @@
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2830,7 +2830,7 @@
         <v>222</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>223</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -2838,37 +2838,37 @@
         <v>43867.392670648143</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -2876,31 +2876,31 @@
         <v>43867.39334008102</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="K44" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -2908,46 +2908,46 @@
         <v>43867.394623888889</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>212</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>213</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>213</v>
@@ -2958,19 +2958,19 @@
         <v>43867.395109687495</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -2978,22 +2978,22 @@
         <v>43867.395944490738</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>27</v>
@@ -3004,22 +3004,22 @@
         <v>43867.396859872686</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3027,19 +3027,19 @@
         <v>43867.397601736113</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3047,37 +3047,37 @@
         <v>43867.398741689816</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="M50" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3085,25 +3085,25 @@
         <v>43867.3994231713</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="I51" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3111,19 +3111,19 @@
         <v>43867.399935231486</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3131,19 +3131,19 @@
         <v>43867.40033207176</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="F53" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3151,19 +3151,19 @@
         <v>43867.401373923611</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3171,19 +3171,19 @@
         <v>43867.401838333331</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3191,22 +3191,22 @@
         <v>43867.402415937497</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3214,22 +3214,22 @@
         <v>43867.403161365743</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>57</v>
@@ -3246,25 +3246,25 @@
         <v>43867.403933310183</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="I58" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>94</v>
@@ -3278,19 +3278,19 @@
         <v>43867.404456273143</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3298,25 +3298,25 @@
         <v>43867.405108391205</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3324,31 +3324,31 @@
         <v>43867.406668530093</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="K61" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3356,31 +3356,31 @@
         <v>43867.40742974537</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3388,16 +3388,16 @@
         <v>43867.407841689812</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>100</v>
@@ -3408,19 +3408,19 @@
         <v>43867.414248842593</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="G64" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3428,25 +3428,25 @@
         <v>43885.330914351849</v>
       </c>
       <c r="B65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="H65" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="I65" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3454,19 +3454,19 @@
         <v>43886.330914351849</v>
       </c>
       <c r="B66" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="F66" t="s">
+        <v>338</v>
+      </c>
+      <c r="G66" t="s">
         <v>339</v>
-      </c>
-      <c r="G66" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3474,19 +3474,19 @@
         <v>43886.330914351849</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="G67" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3494,16 +3494,16 @@
         <v>43886.330914351849</v>
       </c>
       <c r="B68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>22</v>
